--- a/Data Set Template.xlsx
+++ b/Data Set Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>blank</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Customer Code</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -515,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,26 +749,41 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
       <c r="K14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
       <c r="K15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
       <c r="K16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
       <c r="K17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
       <c r="K18" t="s">
         <v>45</v>
       </c>
